--- a/Progress_tracker_w_key.xlsx
+++ b/Progress_tracker_w_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\lc_prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21ACF13-5E9F-4EC8-A6EE-D1AC3BE55B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51A5C8-247D-4B0E-BCFC-FF71DFDCDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="6230" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind 75" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Array</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>Make hashmap, update frequencies, check if more than 1 then true/false update</t>
-  </si>
-  <si>
-    <t>l_arr, r_arr, update and multiply. Return difference in linear fashion</t>
   </si>
   <si>
     <t>Kadane's curr_sum is max(c_sum, c_sum+nums[i]), max_sum is max(curr_sum, max_sum) [initial val nums[0]]</t>
@@ -413,6 +410,21 @@
   </si>
   <si>
     <t>run two loops I,j search(board,word,I,j,0) in search fn, return true if index==word.length, check for neighbors</t>
+  </si>
+  <si>
+    <t>l_arr, r_arr, update and multiply. Return difference in linear fashion (mul comes 2nd)</t>
+  </si>
+  <si>
+    <t>Create an unordered_set, l=0, r=0, max, insert if s[r].find==s.end() [max = max(max, r-1+1) r++] else chset.erase(s[l]) left++ return max;</t>
+  </si>
+  <si>
+    <t>init maxcount, maxlen, l, r , uo_map&lt;char,int&gt;; for (right){ freq(s[right]++, maxc = max(maxc, charc(s[r]); if(r-l+1 -maxcount&gt;k{ charcount[s[left]--;left++;} maxlen = max(max_len, r-l+1);} return maxlen;</t>
+  </si>
+  <si>
+    <t>sort strings, check for equality</t>
+  </si>
+  <si>
+    <t>add strings to result based on sorted strings used as keys in a dict</t>
   </si>
 </sst>
 </file>
@@ -781,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E2354-106C-4CD4-B3AB-1824B7237C2A}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -842,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -850,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -858,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -866,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -874,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -882,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
@@ -895,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -903,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -911,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -919,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
@@ -1045,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1053,7 +1065,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1061,7 +1073,7 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1069,7 +1081,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1077,7 +1089,7 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
@@ -1090,7 +1102,7 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1098,7 +1110,7 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1106,7 +1118,7 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1114,7 +1126,7 @@
         <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1122,7 +1134,7 @@
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
@@ -1135,7 +1147,7 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1143,7 +1155,7 @@
         <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1151,7 +1163,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1159,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
@@ -1167,77 +1179,89 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>71</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">

--- a/Progress_tracker_w_key.xlsx
+++ b/Progress_tracker_w_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\lc_prac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51A5C8-247D-4B0E-BCFC-FF71DFDCDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD645C3-081F-4B02-A2A0-2BBDAEC81F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="6230" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Array</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t>add strings to result based on sorted strings used as keys in a dict</t>
+  </si>
+  <si>
+    <t>Create map, stack. Ite through string i, map.find [i]!=map.end() - (1.st.em-0,2.s.top==map[i] pop,else ret0) else{push(i)), st-em-true else false</t>
+  </si>
+  <si>
+    <t>clean str (isalnum, tolower) reverse temp check for equivalence</t>
+  </si>
+  <si>
+    <t>fn for string palin or not, iterate through loops, update left and max_len</t>
   </si>
 </sst>
 </file>
@@ -794,7 +803,7 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="C73" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1220,15 +1229,24 @@
       <c r="A70" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="C71" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
